--- a/data/trans_orig/P1430-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Clase-trans_orig.xlsx
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5147</v>
+        <v>5030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00242802182157264</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01228932308926478</v>
+        <v>0.01201086506564204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7665</v>
+        <v>6660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006425920281368831</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0226757656881089</v>
+        <v>0.01970459189952837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>3189</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8513</v>
+        <v>8711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004213592203644391</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001323208359631435</v>
+        <v>0.00133949929634849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01124797398354474</v>
+        <v>0.01151018260193068</v>
       </c>
     </row>
     <row r="8">
@@ -982,7 +982,7 @@
         <v>417780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413650</v>
+        <v>413767</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -991,7 +991,7 @@
         <v>0.9975719781784274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9877106769107351</v>
+        <v>0.9879891349343582</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>335839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330346</v>
+        <v>331351</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -1012,7 +1012,7 @@
         <v>0.9935740797186312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9773242343118911</v>
+        <v>0.9802954081004717</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1024,19 +1024,19 @@
         <v>753619</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>748295</v>
+        <v>748097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>755807</v>
+        <v>755794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9957864077963556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887520260164552</v>
+        <v>0.9884898173980693</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9986767916403686</v>
+        <v>0.9986605007036515</v>
       </c>
     </row>
     <row r="9">
@@ -1128,19 +1128,19 @@
         <v>3031</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8138</v>
+        <v>7971</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004814930336647335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001480749325722363</v>
+        <v>0.001482245629978994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01292979992232788</v>
+        <v>0.0126636181464632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5915</v>
+        <v>5226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004010671226916217</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02273693494352027</v>
+        <v>0.02009144818514592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1170,19 +1170,19 @@
         <v>4074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9975</v>
+        <v>10049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004579740840620536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001177532135050221</v>
+        <v>0.00117303538863258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01121401970455014</v>
+        <v>0.01129701848135711</v>
       </c>
     </row>
     <row r="11">
@@ -1199,19 +1199,19 @@
         <v>626384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621277</v>
+        <v>621444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628483</v>
+        <v>628482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9951850696633526</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9870702000776721</v>
+        <v>0.9873363818535368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985192506742776</v>
+        <v>0.998517754370021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -1220,7 +1220,7 @@
         <v>259086</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>254214</v>
+        <v>254903</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>260129</v>
@@ -1229,7 +1229,7 @@
         <v>0.9959893287730838</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9772630650564796</v>
+        <v>0.979908551814854</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1241,19 +1241,19 @@
         <v>885470</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>879569</v>
+        <v>879495</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>888497</v>
+        <v>888501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9954202591593795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9887859802954498</v>
+        <v>0.9887029815186429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9988224678649498</v>
+        <v>0.9988269646113673</v>
       </c>
     </row>
     <row r="12">
@@ -1345,19 +1345,19 @@
         <v>17810</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10300</v>
+        <v>10331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29222</v>
+        <v>30980</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01536689244274699</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008886665745844907</v>
+        <v>0.008913505122976343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02521255283023321</v>
+        <v>0.02672971664707157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1366,19 +1366,19 @@
         <v>7173</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3109</v>
+        <v>3017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15188</v>
+        <v>14387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009380474074972443</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004065972462468113</v>
+        <v>0.003944747227318252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01986107523429593</v>
+        <v>0.0188136180937683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1387,19 +1387,19 @@
         <v>24984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15555</v>
+        <v>16079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39088</v>
+        <v>38981</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01298716994987077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008085730419001362</v>
+        <v>0.008358342852403854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02031904520834234</v>
+        <v>0.02026332582040842</v>
       </c>
     </row>
     <row r="14">
@@ -1416,19 +1416,19 @@
         <v>1141199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1129787</v>
+        <v>1128029</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1148709</v>
+        <v>1148678</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.984633107557253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9747874471697668</v>
+        <v>0.9732702833529283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.991113334254155</v>
+        <v>0.9910864948770236</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>703</v>
@@ -1437,19 +1437,19 @@
         <v>757549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>749534</v>
+        <v>750335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>761613</v>
+        <v>761705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9906195259250276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.980138924765704</v>
+        <v>0.9811863819062316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9959340275375319</v>
+        <v>0.9960552527726817</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1771</v>
@@ -1458,19 +1458,19 @@
         <v>1898747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1884643</v>
+        <v>1884750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1908176</v>
+        <v>1907652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870128300501292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9796809547916577</v>
+        <v>0.9797366741795916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9919142695809987</v>
+        <v>0.9916416571475962</v>
       </c>
     </row>
     <row r="15">
@@ -1565,16 +1565,16 @@
         <v>978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7444</v>
+        <v>9086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006022056861446107</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001915203136279122</v>
+        <v>0.001916329774827224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01457869738338683</v>
+        <v>0.01779426592053135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1583,19 +1583,19 @@
         <v>3230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8895</v>
+        <v>9186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004248248012135972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001245048913743901</v>
+        <v>0.001250410435949637</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01169963469536041</v>
+        <v>0.01208228685316015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1604,19 +1604,19 @@
         <v>6305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2293</v>
+        <v>3008</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13643</v>
+        <v>12859</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004960924950597364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001804543409592523</v>
+        <v>0.002367026152879417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01073504271509214</v>
+        <v>0.01011814685011913</v>
       </c>
     </row>
     <row r="17">
@@ -1633,7 +1633,7 @@
         <v>507521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>503152</v>
+        <v>501510</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>509618</v>
@@ -1642,10 +1642,10 @@
         <v>0.9939779431385539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9854213026166133</v>
+        <v>0.9822057340794705</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9980847968637209</v>
+        <v>0.9980836702251729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>699</v>
@@ -1654,19 +1654,19 @@
         <v>757016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>751351</v>
+        <v>751060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>759299</v>
+        <v>759295</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.995751751987864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9883003653046387</v>
+        <v>0.9879177131468402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9987549510862561</v>
+        <v>0.9987495895640504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1183</v>
@@ -1675,19 +1675,19 @@
         <v>1264538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1257200</v>
+        <v>1257984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1268550</v>
+        <v>1267835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9950390750494026</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9892649572849078</v>
+        <v>0.9898818531498795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9981954565904073</v>
+        <v>0.9976329738471206</v>
       </c>
     </row>
     <row r="18">
@@ -1792,19 +1792,19 @@
         <v>8553</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4293</v>
+        <v>4263</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17222</v>
+        <v>16151</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007710199490474475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003869511241336017</v>
+        <v>0.003843004719573272</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01552403019502158</v>
+        <v>0.01455905548750834</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1813,19 +1813,19 @@
         <v>8553</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4186</v>
+        <v>4211</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16038</v>
+        <v>16055</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006215021988231982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003041572537207117</v>
+        <v>0.003059509663308931</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01165378142050429</v>
+        <v>0.01166622565810658</v>
       </c>
     </row>
     <row r="20">
@@ -1855,19 +1855,19 @@
         <v>1100798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1092129</v>
+        <v>1093200</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1105058</v>
+        <v>1105088</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9922898005095255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9844759698049784</v>
+        <v>0.9854409445124916</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9961304887586639</v>
+        <v>0.9961569952804268</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1301</v>
@@ -1876,19 +1876,19 @@
         <v>1367680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1360195</v>
+        <v>1360178</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1372047</v>
+        <v>1372022</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.993784978011768</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9883462185794958</v>
+        <v>0.9883337743418935</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9969584274627928</v>
+        <v>0.9969404903366911</v>
       </c>
     </row>
     <row r="21">
@@ -1980,19 +1980,19 @@
         <v>24933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15702</v>
+        <v>15775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37804</v>
+        <v>38150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007286178752931909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004588704636560926</v>
+        <v>0.004610020180541022</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01104750958408309</v>
+        <v>0.01114881055868919</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2001,19 +2001,19 @@
         <v>22172</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14503</v>
+        <v>14133</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32748</v>
+        <v>32636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006251015583762939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00408896499450232</v>
+        <v>0.003984655649509066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009232778527250709</v>
+        <v>0.009201182922875825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -2022,19 +2022,19 @@
         <v>47104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34298</v>
+        <v>34808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62379</v>
+        <v>63819</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00675931294738749</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004921681834561386</v>
+        <v>0.004994881840362168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008951214927363385</v>
+        <v>0.009157831893577181</v>
       </c>
     </row>
     <row r="23">
@@ -2051,19 +2051,19 @@
         <v>3396977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3384106</v>
+        <v>3383760</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3406208</v>
+        <v>3406135</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9927138212470681</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9889524904159166</v>
+        <v>0.9888511894413111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.995411295363439</v>
+        <v>0.9953899798194591</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3267</v>
@@ -2072,19 +2072,19 @@
         <v>3524743</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3514167</v>
+        <v>3514279</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3532412</v>
+        <v>3532782</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.993748984416237</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9907672214727492</v>
+        <v>0.9907988170771244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9959110350054976</v>
+        <v>0.9960153443504917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6450</v>
@@ -2093,19 +2093,19 @@
         <v>6921721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6906446</v>
+        <v>6905006</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6934527</v>
+        <v>6934017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9932406870526125</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9910487850726365</v>
+        <v>0.9908421681064226</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9950783181654382</v>
+        <v>0.9950051181596377</v>
       </c>
     </row>
     <row r="24">
@@ -2439,19 +2439,19 @@
         <v>3683</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10223</v>
+        <v>10857</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008583102906385132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002118869376445503</v>
+        <v>0.00216907050195903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0238242886923324</v>
+        <v>0.02530335022104606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5455</v>
+        <v>6322</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005205781489145151</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01571788108152217</v>
+        <v>0.01821622729928494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2481,19 +2481,19 @@
         <v>5490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1864</v>
+        <v>1823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12759</v>
+        <v>12948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007072930098690621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002401478526877795</v>
+        <v>0.002348716053981086</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01643893122797293</v>
+        <v>0.01668280988608658</v>
       </c>
     </row>
     <row r="5">
@@ -2510,19 +2510,19 @@
         <v>425409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418869</v>
+        <v>418235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428183</v>
+        <v>428161</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9914168970936149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9761757113076676</v>
+        <v>0.9746966497789543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978811306235545</v>
+        <v>0.997830929498041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -2531,7 +2531,7 @@
         <v>345248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>341600</v>
+        <v>340733</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -2540,7 +2540,7 @@
         <v>0.9947942185108548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9842821189184778</v>
+        <v>0.9817837727007153</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2552,19 +2552,19 @@
         <v>770657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763388</v>
+        <v>763199</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774283</v>
+        <v>774324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9929270699013094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9835610687720271</v>
+        <v>0.9833171901139135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9975985214731222</v>
+        <v>0.997651283946019</v>
       </c>
     </row>
     <row r="6">
@@ -2656,19 +2656,19 @@
         <v>3676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11128</v>
+        <v>10694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009745758206569951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002546104194721451</v>
+        <v>0.002529269461155765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02949928983131031</v>
+        <v>0.02834792371598297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>3676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11718</v>
+        <v>11470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004905085777269909</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001279281076595896</v>
+        <v>0.001273514865915012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0156341865223358</v>
+        <v>0.015304068278325</v>
       </c>
     </row>
     <row r="8">
@@ -2719,19 +2719,19 @@
         <v>373551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366099</v>
+        <v>366533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376267</v>
+        <v>376273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99025424179343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9705007101686901</v>
+        <v>0.9716520762840168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974538958052787</v>
+        <v>0.9974707305388443</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -2753,19 +2753,19 @@
         <v>745824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>737782</v>
+        <v>738030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748541</v>
+        <v>748546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950949142227301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9843658134776641</v>
+        <v>0.984695931721675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9987207189234041</v>
+        <v>0.998726485134085</v>
       </c>
     </row>
     <row r="9">
@@ -2857,19 +2857,19 @@
         <v>3943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9405</v>
+        <v>9652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007555615259538138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001911419999594383</v>
+        <v>0.001930054496954132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01801961854712031</v>
+        <v>0.01849415710724847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12415</v>
+        <v>10903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.018671495832395</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07473480950101562</v>
+        <v>0.06563314957164602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2899,19 +2899,19 @@
         <v>7045</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2183</v>
+        <v>2931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14411</v>
+        <v>17303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01023948634041125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003172264558262179</v>
+        <v>0.004260315960069122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02094460832306782</v>
+        <v>0.02514785565434902</v>
       </c>
     </row>
     <row r="11">
@@ -2928,19 +2928,19 @@
         <v>517971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512509</v>
+        <v>512262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520916</v>
+        <v>520907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9924443847404618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819803814528797</v>
+        <v>0.981505842892751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980885800004056</v>
+        <v>0.9980699455030458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -2949,7 +2949,7 @@
         <v>163021</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153708</v>
+        <v>155220</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -2958,7 +2958,7 @@
         <v>0.981328504167605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9252651904989844</v>
+        <v>0.9343668504283541</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2970,19 +2970,19 @@
         <v>680991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>673625</v>
+        <v>670733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>685853</v>
+        <v>685105</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9897605136595887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9790553916769322</v>
+        <v>0.9748521443456512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968277354417379</v>
+        <v>0.9957396840399309</v>
       </c>
     </row>
     <row r="12">
@@ -3074,19 +3074,19 @@
         <v>9448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4358</v>
+        <v>4292</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18454</v>
+        <v>19979</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008218080506150785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003791002545673137</v>
+        <v>0.003733485251041147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01605187537273274</v>
+        <v>0.01737880211053216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4761</v>
+        <v>5660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001212912404015343</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005764358023403297</v>
+        <v>0.006853414175727926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3116,19 +3116,19 @@
         <v>10450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4226</v>
+        <v>4643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19141</v>
+        <v>18660</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005289526950951151</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002139351437996713</v>
+        <v>0.002350428528092563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009689356061567449</v>
+        <v>0.009445527339541652</v>
       </c>
     </row>
     <row r="14">
@@ -3145,19 +3145,19 @@
         <v>1140190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1131184</v>
+        <v>1129659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145280</v>
+        <v>1145346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9917819194938492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9839481246272673</v>
+        <v>0.9826211978894682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9962089974543269</v>
+        <v>0.9962665147489589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>797</v>
@@ -3166,7 +3166,7 @@
         <v>824874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821115</v>
+        <v>820216</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>825876</v>
@@ -3175,7 +3175,7 @@
         <v>0.9987870875959847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9942356419765968</v>
+        <v>0.9931465858242712</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3187,19 +3187,19 @@
         <v>1965064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1956373</v>
+        <v>1956854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971288</v>
+        <v>1970871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9947104730490488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9903106439384325</v>
+        <v>0.9905544726604584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9978606485620033</v>
+        <v>0.997649571471907</v>
       </c>
     </row>
     <row r="15">
@@ -3291,19 +3291,19 @@
         <v>4013</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>979</v>
+        <v>1255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10114</v>
+        <v>10787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006465469831229189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001577929573143441</v>
+        <v>0.002022455233398582</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01629462481220526</v>
+        <v>0.01737791581743644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3312,19 +3312,19 @@
         <v>5487</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2072</v>
+        <v>1991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12760</v>
+        <v>11416</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007432963114722047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002806260337041463</v>
+        <v>0.002696572637708018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01728453416311784</v>
+        <v>0.01546307499535087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3333,19 +3333,19 @@
         <v>9500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4174</v>
+        <v>4820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17372</v>
+        <v>17848</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006991056667768361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003071607832873973</v>
+        <v>0.00354668752526742</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01278314954919346</v>
+        <v>0.01313398825818176</v>
       </c>
     </row>
     <row r="17">
@@ -3362,19 +3362,19 @@
         <v>616693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>610592</v>
+        <v>609919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619727</v>
+        <v>619451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9935345301687708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9837053751877946</v>
+        <v>0.982622084182564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984220704268566</v>
+        <v>0.9979775447666014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>694</v>
@@ -3383,19 +3383,19 @@
         <v>732757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>725484</v>
+        <v>726828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>736172</v>
+        <v>736253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9925670368852779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9827154658368822</v>
+        <v>0.9845369250046491</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9971937396629585</v>
+        <v>0.997303427362292</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1287</v>
@@ -3404,19 +3404,19 @@
         <v>1349450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1341578</v>
+        <v>1341102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1354776</v>
+        <v>1354130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9930089433322317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9872168504508068</v>
+        <v>0.9868660117418182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.996928392167126</v>
+        <v>0.9964533124747326</v>
       </c>
     </row>
     <row r="18">
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7657</v>
+        <v>8241</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002146201872880152</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00707642100971708</v>
+        <v>0.007616098808832697</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8194</v>
+        <v>7962</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001696096003341909</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005984957381109809</v>
+        <v>0.005815189631901871</v>
       </c>
     </row>
     <row r="20">
@@ -3584,7 +3584,7 @@
         <v>1079703</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1074368</v>
+        <v>1073784</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1082025</v>
@@ -3593,7 +3593,7 @@
         <v>0.9978537981271198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9929235789902835</v>
+        <v>0.9923839011911676</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>1366848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1360976</v>
+        <v>1361208</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>1369170</v>
@@ -3614,7 +3614,7 @@
         <v>0.9983039039966581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.99401504261889</v>
+        <v>0.9941848103680979</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -3709,19 +3709,19 @@
         <v>24764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15168</v>
+        <v>16082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37412</v>
+        <v>36639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007314144081243592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004479996690369616</v>
+        <v>0.004749844856955632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01105006832925274</v>
+        <v>0.01082160647613695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -3730,19 +3730,19 @@
         <v>13720</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7320</v>
+        <v>7079</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23710</v>
+        <v>22865</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003884859426061223</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002072619548795341</v>
+        <v>0.002004442920646665</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.006713568922956485</v>
+        <v>0.006474386005744524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -3751,19 +3751,19 @@
         <v>38483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26124</v>
+        <v>25809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52848</v>
+        <v>53014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005563343054979459</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003776622611169456</v>
+        <v>0.003731135852918792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007639900064715124</v>
+        <v>0.007663899871311009</v>
       </c>
     </row>
     <row r="23">
@@ -3780,19 +3780,19 @@
         <v>3360958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3348310</v>
+        <v>3349083</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3370554</v>
+        <v>3369640</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9926858559187564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.988949931670747</v>
+        <v>0.9891783935238629</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9955200033096303</v>
+        <v>0.9952501551430444</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3314</v>
@@ -3801,19 +3801,19 @@
         <v>3517876</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3507886</v>
+        <v>3508731</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3524276</v>
+        <v>3524517</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9961151405739388</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9932864310770435</v>
+        <v>0.9935256139942557</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9979273804512047</v>
+        <v>0.9979955570793535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6516</v>
@@ -3822,19 +3822,19 @@
         <v>6878835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6864470</v>
+        <v>6864304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6891194</v>
+        <v>6891509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9944366569450206</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9923600999352852</v>
+        <v>0.9923361001286893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9962233773888306</v>
+        <v>0.9962688641470812</v>
       </c>
     </row>
     <row r="24">
